--- a/biology/Botanique/Forêt_domaniale_de_Rihoult-Clairmarais/Forêt_domaniale_de_Rihoult-Clairmarais.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Rihoult-Clairmarais/Forêt_domaniale_de_Rihoult-Clairmarais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Rihoult-Clairmarais, plus souvent dénommée « forêt de Clairmarais » est un des grands massifs boisés de la région Nord-Pas-de-Calais et l'un des deux seuls de Flandre française.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « Rihoult » rappelle celui du « bois » (en flamand, Hoult) et « Ri » évoquerait la notion de cours d'eau ou l'aspect « vallonné » de la forêt localement caractérisée par un relief en « peau d'orange ».
 Le nom de « Clairmarais » évoque une hygromorphie élevée, qui persiste localement en dépit du fait que la forêt a été substantiellement drainée (de même que ses environs).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Localisation et contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à la fois sur les départements du Nord et du Pas-de-Calais (50°45'36.79"N 2°20'04.09" E), ce massif est sis aux deux tiers sur le territoire de la ville industrielle d'Arques, et en limite de la Flandre intérieure française.
 Le contexte est celui d’une zone consacrée à l’agriculture intensive au nord, et d’une zone urbaine et industrielle (Bonduelle, Verrerie cristallerie "Arques International" (Arcopal et Durand), incinérateur de Saint-Omer, etc.) et du marais audomarois au sud.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La région ayant connu une importante occupation préhistorique, on peut supposer que la forêt, relique de l'immense forêt charbonnière décrite par les chroniqueurs de l'Antiquité et Jules César lors de la Guerre des Gaules, a été exploitée par des hommes préhistoriques.
 Au haut Moyen Âge, alors que les forêts continuent à régresser depuis la conquête des Gaules par César, la Morinie reste réputée pour ses marécages et ses immenses forêts traversés par la voie romaine reliant Thérouanne (important centre universitaire et culturel à l’époque) à la mer. Le climat y a été plus chaud et plus océanique à l'époque de la dernière petite l'transgression flandrienne (invasion marine des terres basses de Flandre maritime à la suite d'une élévation du niveau de la mer), avec un maximum à l'époque carolingienne, vers l'an 800. À cette époque, la mer venait jusqu'à Watten, non loin de ce massif, et les eaux marines salées venaient jusqu’à Saint-Omer, non loin de la forêt qui a alors probablement subi une influence océanique plus marquée.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,25 +641,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classements
-La richesse du massif a justifié son classement en ZNIEFF de type 1 et dans le réseau Natura 2000, abritant une réserve biologique domaniale. C'est à ce titre un des éléments importants de la trame verte nationale (confirmée par le Grenelle de l'Environnement en 2007) et de la trame verte régionale.
-Du point de vue phytosociologique, le groupement forestier dominant a été désigné comme étant le Primulo vulgaris-Carpinetum betuli, par le Centre régional de phytosociologie de Bailleul[2].
-Étangs
-Plusieurs étangs y ont été aménagées, dont l'étang d'Harchelles (« Archel » signifiait autrefois dans la région osier[3]). Cet étang a été vidangé au printemps 1995 puis curé parce qu'il était en voie d'eutrophisation et surtout d'atterrissement (La hauteur d'eau n'excédait plus 60 cm avec une épaisseur de vase atteignant les 1,50 m et sa partie amont était en grande partie colonisée par une roselière). 150 000 m3 de vase étaient à retirer de l'étang. Le public a été prévenu par voie de presse que seraient dans le même temps réalisés une réfection des berges (dégradées par les pêcheurs, promeneurs et quelques rats musqués), des aménagements pour les promeneurs, et les berges du fossé d'alimentation (pieux traités, avec un plan et profil rectifié (plus linéaire). Selon la presse[4]; 1,5 tonne de poissons (dont 2 sandres de 8 kg, 150 carpes communes d'environ 4,5 kg, et 90 % de gardon, brême ont été récupérés lors de la vidange de l'étang, mais aucun brochet ni perche.
-Évolutions
-À cause de l’exploitation intensive, pour partie en coupe rase suivie d'une régénération artificielle (plantations en alignements) la forêt est cependant devenue très pauvre en bois-mort ce qui explique la pauvreté des espèces saproxylophages et la relative pauvreté en champignons forestiers et localement en humus forestier. Pour ces raisons, et à cause du drainage et d'une fréquentation élevée dans le centre du massif, ce massif n’exprime probablement pas tout son potentiel écologique.
-Faune
-Les amphibiens encore très nombreux dans les années 1960 ont fortement régressé dans le massif.
-Roadkill : En quelques points, depuis plusieurs décennies, de nombreux individus d'espèces protégées (crapaud commun, grenouilles, salamandres et plusieurs espèces de tritons) meurent écrasées ou blessées sur les routes (là où elles n’ont pas déjà) disparu, faute de battrachoduc (écoduc).
-Un des principaux sites de reproduction de salamandres a été fortement perturbé par l’effondrement de la digue de l’étang d'Harchelles, qui a entrainé la vidange brutale du lac, à la suite d'un violent orage (au milieu des années 1990).
-Flore
-Quelques espèces végétales, dont Hottonia palustris autrefois localement très abondantes ont fortement régressé ou disparu.
-La forêt a abrité une population importante de Primula vulgaris Huds qui a disparu du sud de la Belgique et de la Flandre cultivée sur environ 40 km au nord de la forêt.
-Habitats
-En 2005, des crédits Interreg ont permis à l’ONF, avec le Parc naturel régional des Caps et Marais d'Opale, d’initier un programme de restauration de 30 mares forestières dans les forêst de Desvres, Boulogne-sur-Mer et de Rihoult-Clairmarais (30 000 €)
-Chasse
-Les baux de chasse sont une source de revenu important pour l'ONF. La forêt est chassé pour le petit gibier (faisans d’élevage) et ses sangliers et chevreuils (agrainés). En dépit de la taille du massif, les cerfs y ont disparu depuis plusieurs siècles du fait de leur chasse. Lors des actions de chasse à balle, tout ou partie du massif peut être fermé au public pour limiter les risques d'accidents par balle perdue.
-Qualité de l'eau, de l'air et des sols. Peu de données semblent disponibles, mais la forêt de Clairmarais est géographiquement située sous le vent de toutes les industries de la vallée de l'Aa, et de l'incinérateur de Saint-Omer.
+          <t>Classements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La richesse du massif a justifié son classement en ZNIEFF de type 1 et dans le réseau Natura 2000, abritant une réserve biologique domaniale. C'est à ce titre un des éléments importants de la trame verte nationale (confirmée par le Grenelle de l'Environnement en 2007) et de la trame verte régionale.
+Du point de vue phytosociologique, le groupement forestier dominant a été désigné comme étant le Primulo vulgaris-Carpinetum betuli, par le Centre régional de phytosociologie de Bailleul.
 </t>
         </is>
       </c>
@@ -652,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,10 +674,238 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étangs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs étangs y ont été aménagées, dont l'étang d'Harchelles (« Archel » signifiait autrefois dans la région osier). Cet étang a été vidangé au printemps 1995 puis curé parce qu'il était en voie d'eutrophisation et surtout d'atterrissement (La hauteur d'eau n'excédait plus 60 cm avec une épaisseur de vase atteignant les 1,50 m et sa partie amont était en grande partie colonisée par une roselière). 150 000 m3 de vase étaient à retirer de l'étang. Le public a été prévenu par voie de presse que seraient dans le même temps réalisés une réfection des berges (dégradées par les pêcheurs, promeneurs et quelques rats musqués), des aménagements pour les promeneurs, et les berges du fossé d'alimentation (pieux traités, avec un plan et profil rectifié (plus linéaire). Selon la presse; 1,5 tonne de poissons (dont 2 sandres de 8 kg, 150 carpes communes d'environ 4,5 kg, et 90 % de gardon, brême ont été récupérés lors de la vidange de l'étang, mais aucun brochet ni perche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Évolutions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À cause de l’exploitation intensive, pour partie en coupe rase suivie d'une régénération artificielle (plantations en alignements) la forêt est cependant devenue très pauvre en bois-mort ce qui explique la pauvreté des espèces saproxylophages et la relative pauvreté en champignons forestiers et localement en humus forestier. Pour ces raisons, et à cause du drainage et d'une fréquentation élevée dans le centre du massif, ce massif n’exprime probablement pas tout son potentiel écologique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amphibiens encore très nombreux dans les années 1960 ont fortement régressé dans le massif.
+Roadkill : En quelques points, depuis plusieurs décennies, de nombreux individus d'espèces protégées (crapaud commun, grenouilles, salamandres et plusieurs espèces de tritons) meurent écrasées ou blessées sur les routes (là où elles n’ont pas déjà) disparu, faute de battrachoduc (écoduc).
+Un des principaux sites de reproduction de salamandres a été fortement perturbé par l’effondrement de la digue de l’étang d'Harchelles, qui a entrainé la vidange brutale du lac, à la suite d'un violent orage (au milieu des années 1990).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques espèces végétales, dont Hottonia palustris autrefois localement très abondantes ont fortement régressé ou disparu.
+La forêt a abrité une population importante de Primula vulgaris Huds qui a disparu du sud de la Belgique et de la Flandre cultivée sur environ 40 km au nord de la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, des crédits Interreg ont permis à l’ONF, avec le Parc naturel régional des Caps et Marais d'Opale, d’initier un programme de restauration de 30 mares forestières dans les forêst de Desvres, Boulogne-sur-Mer et de Rihoult-Clairmarais (30 000 €)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Environnement, écologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chasse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baux de chasse sont une source de revenu important pour l'ONF. La forêt est chassé pour le petit gibier (faisans d’élevage) et ses sangliers et chevreuils (agrainés). En dépit de la taille du massif, les cerfs y ont disparu depuis plusieurs siècles du fait de leur chasse. Lors des actions de chasse à balle, tout ou partie du massif peut être fermé au public pour limiter les risques d'accidents par balle perdue.
+Qualité de l'eau, de l'air et des sols. Peu de données semblent disponibles, mais la forêt de Clairmarais est géographiquement située sous le vent de toutes les industries de la vallée de l'Aa, et de l'incinérateur de Saint-Omer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Aspects sanitaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans les autres forêts régionales, on a constaté une mortalité quasi totale des ormes dans les années 1970-1980.
 On a aussi constaté depuis les années 1970 une augmentation régulière du nombre de tiques, susceptibles d’être vecteur de la maladie de Lyme.
@@ -680,69 +915,143 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est assurée par l'ONF. Une bonne gestion passe par la connaissance et la mémoire des actions de gestion. L'ancien sommier de la forêt est conservé par l'ONF.
-La forêt domaniale Rihoult-Clairmarais, ainsi que la forêt de Nieppe, ont fait l’objet dans les années 1990 d’application d'une typologie forestière intégrée[5].
-Aménagements
-Ce massif a depuis plusieurs siècles fait l’objet d’une exploitation très intensive, en dépit de quelques pentes et zones humides qui ne la facilitent pas. Cette gestion s’est longtemps traduite par une structure en taillis produisant des bois aujourd'hui jugés de moindre valeur que les troncs de futaies que pourrait produire cette forêt. L’essentiel de la forêt fait donc depuis quelques décennies l’objet d’une démarche de conversion du taillis sous futaie (qui résulte d’une exploitation intensive depuis le Moyen Âge) en futaie régulière, au fur et à mesure des coupes rases suivies de replantations et/ou de régénération naturelle.
+La forêt domaniale Rihoult-Clairmarais, ainsi que la forêt de Nieppe, ont fait l’objet dans les années 1990 d’application d'une typologie forestière intégrée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gestion</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Aménagements</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce massif a depuis plusieurs siècles fait l’objet d’une exploitation très intensive, en dépit de quelques pentes et zones humides qui ne la facilitent pas. Cette gestion s’est longtemps traduite par une structure en taillis produisant des bois aujourd'hui jugés de moindre valeur que les troncs de futaies que pourrait produire cette forêt. L’essentiel de la forêt fait donc depuis quelques décennies l’objet d’une démarche de conversion du taillis sous futaie (qui résulte d’une exploitation intensive depuis le Moyen Âge) en futaie régulière, au fur et à mesure des coupes rases suivies de replantations et/ou de régénération naturelle.
 En mai–juin 2003, les associations de protection de l’environnement et certains riverains, via la presse, relayée par le député-maire de la commune d’Arques (Michel Lefait) ont protesté, notamment auprès du ministre Hervé Gaymard, à propos du caractère trop intensif de la gestion et en particulier de l’abattage des arbres avant qu’ils aient atteint leur maturité, demandant plus de concertation dans l’avenir de l’aménagement des forêts. En réponse, le ministre a promis un bilan des coupes et que le programme de coupes des quinze années suivantes ferait l’objet d’une concertation « prévue par l’article L. 133-1 en application de l’article L. 3-1 de la loi n° 2001-602 du 9 juillet 2001 d’orientation sur la forêt ».
-Gestion de la chasse
-Elle vise à préserver les équilibres dits « sylvocynégétiques ». L'agrainage est pratiqué depuis plusieurs décennies dans le cadre du Plan de chasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Gestion</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gestion de la chasse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vise à préserver les équilibres dits « sylvocynégétiques ». L'agrainage est pratiqué depuis plusieurs décennies dans le cadre du Plan de chasse.
 Au moment de la chasse au grand gibier, les accès à la forêt peuvent être fermés. Plusieurs routes sont fermées aux véhicules toute l’année, ce qui offre une meilleure tranquillité aux animaux (hors période de chasse).
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Rihoult-Clairmarais</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Loisirs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt accueille de très nombreux visiteurs, randonneurs, cyclistes, écoliers, habitants du Parc et de l'Audomarois, quelques cavaliers, chasseurs et cueilleurs de champignons, au point que les abords de l'étang d'archelle, lieu le plus fréquenté ont dû être restaurés dans les années 1990.
 Cet afflux s'explique par le peu de boisement ouverts au public dans cette région, la proximité d'aménagements de loisirs, dont le camping de Clairmarais) et sa position de vaste espace boisé situé dans un espace régional fortement urbanisé.
